--- a/com/zjx/island/biz/score/templates/粘贴结果模板.xlsx
+++ b/com/zjx/island/biz/score/templates/粘贴结果模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjx/PycharmProjects/PythonIsland/com/zjx/island/biz/score/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjx/PycharmProjects/PythonIsland/com/zjx/island/biz/score/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E702C9A-A71B-E94B-86EE-530E42E244C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008AAB2E-572F-EA4B-B665-0754BB0642E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11840" yWindow="5900" windowWidth="27900" windowHeight="16940" xr2:uid="{9CB98A5A-9E1E-D440-A4D9-3D3AA2494AB7}"/>
+    <workbookView xWindow="7940" yWindow="3940" windowWidth="27900" windowHeight="16940" xr2:uid="{9CB98A5A-9E1E-D440-A4D9-3D3AA2494AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B167"/>
+      <selection activeCell="B167" sqref="A1:B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
